--- a/biology/Écologie/Désert_des_Mojaves/Désert_des_Mojaves.xlsx
+++ b/biology/Écologie/Désert_des_Mojaves/Désert_des_Mojaves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9sert_des_Mojaves</t>
+          <t>Désert_des_Mojaves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le désert des Mojaves, de Mojave, ou simplement désert Mojave, est une grande étendue désertique d'environ 40 000 km2. Il est situé dans l'Ouest des États-Unis, dans le Sud de la Californie essentiellement, mais il déborde sur les États voisins du Nevada, au nord, et de l'Arizona, à l’est. Ce désert appartient au même ensemble géologique que le Grand Bassin ou que le désert de Sonora. Son nom est emprunté à un peuple amérindien, les Mohaves. C'est un désert d'abri, bordé par les montagnes Tehachapi, San Gabriel et San Bernadino.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9sert_des_Mojaves</t>
+          <t>Désert_des_Mojaves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le désert des Mojaves possède de façon générale un climat subtropical, désertique chaud en tous cas en vallée caractérisé par des étés longs, très chauds et très secs et par des hivers courts, doux à extrêmement doux et secs. Le désert des Mojaves reçoit moins de 330 mm de précipitations par an et a une altitude située entre −86 et 3 366 m. Le désert des Mojaves contient l'endroit le plus chaud du monde (jusqu'à 56,7 °C sous abri Stevenson), qui est également le plus bas et le plus sec des États-Unis contigus (troisième lieu le plus aride du monde) : la vallée de la Mort où les températures moyennes, les températures minimales moyennes et les températures maximales moyennes sont en juillet à Furnace Creek Station respectivement de 39,0 °C, 31,1 °C et 46,9 °C[1].
-En moyenne annuelle à Furnace Creek Station la température est de 25,1 °C (la région la plus chaude en moyenne annuelle des États-Unis contigus est l'extrême sud de la Floride, exemple Marathon Airport, latitude 24.7258, longitude -81.0517 avec 25,8 °C[2]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le désert des Mojaves possède de façon générale un climat subtropical, désertique chaud en tous cas en vallée caractérisé par des étés longs, très chauds et très secs et par des hivers courts, doux à extrêmement doux et secs. Le désert des Mojaves reçoit moins de 330 mm de précipitations par an et a une altitude située entre −86 et 3 366 m. Le désert des Mojaves contient l'endroit le plus chaud du monde (jusqu'à 56,7 °C sous abri Stevenson), qui est également le plus bas et le plus sec des États-Unis contigus (troisième lieu le plus aride du monde) : la vallée de la Mort où les températures moyennes, les températures minimales moyennes et les températures maximales moyennes sont en juillet à Furnace Creek Station respectivement de 39,0 °C, 31,1 °C et 46,9 °C.
+En moyenne annuelle à Furnace Creek Station la température est de 25,1 °C (la région la plus chaude en moyenne annuelle des États-Unis contigus est l'extrême sud de la Floride, exemple Marathon Airport, latitude 24.7258, longitude -81.0517 avec 25,8 °C).
 Le désert des Mojaves se situe dans l'ombre pluviométrique de la Sierra Nevada, importante chaîne de montagnes qui rend la masse d'air beaucoup plus sèche et plus chaude par effet de foehn. Le climat sec y est aussi influencé par des reliefs montagneux moins importants tel que la chaîne Spring mais qui ont le même effet réchauffant et asséchant, ce qui au bout du compte contribue à créer une zone très aride.
 Les températures moyennes maximales en hiver en haute altitude se situent autour de 5 °C alors que les températures nocturnes peuvent être glaciales (autour de −5 °C voire parfois en dessous). Cependant, les températures moyennes maximales hivernales en vallée, à des altitudes beaucoup moins élevées dépassent facilement 20 °C.
 Les températures moyennes maximales en été (de mai à septembre) après milieu mai sont normalement supérieures à 32 °C et fréquemment au-dessus de 38 °C. Le climat estival est dominé par la chaleur extrême. Les températures en vallée peuvent grimper au-delà de 46 °C pendant les vagues de chaleur et au-delà de 50 °C à des altitudes encore plus basses. L'humidité relative de l'air y est très faible et n'atteint généralement pas 30 %, ce qui rend la chaleur plus supportable. L'humidité relative basse, les températures élevées et la pression atmosphérique basse attirent l'humidité en provenance du golfe du Mexique en créant des orages de forte chaleur à travers le sud-ouest du désert. Cette période d'orages est connue sous le nom de mousson nord-américaine et peut occasionner des crues dans les profondes vallées.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9sert_des_Mojaves</t>
+          <t>Désert_des_Mojaves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le désert des Mojaves est dans sa majeure partie recouvert de plaines rocailleuses, parfois interrompues par des massifs montagneux. Une des caractéristiques de ce désert est la présence d'une espèce de yucca nommée Joshua Tree. La région reçoit moins de 150 mm de précipitations par an, mais se situe à des altitudes assez élevées, comprises entre 1 000 et 2 000 mètres. C'est pourquoi il arrive que la neige y tombe en certains endroits pendant l'hiver. L'amplitude thermique, d’une saison à l'autre, varie de façon très importante.
 La vallée de la Mort fait partie de ce désert. Le vent y souffle fort et régulièrement, c'est pourquoi une série d'éoliennes a été installée près du col de Tehachapi. Pour cette raison, le désert de Mojave occupe la première place mondiale pour la production d'énergie éolienne.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9sert_des_Mojaves</t>
+          <t>Désert_des_Mojaves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le désert des Mojaves était peuplé par les Mojaves, un peuple amérindien qui lui a donné son nom.
 Pendant la conquête de l'Ouest, le désert des Mojaves fut d'abord fréquenté par des aventuriers et des chercheurs d’or dans les années 1870, qui campaient près de l’oasis de Mara. En 1938, le Baby Homeland Act attribuait gratuitement une parcelle d’un hectare à toute personne désireuse de s’y installer et d’y édifier une structure en dur. L'objectif était de peupler cette région peu occupée.
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9sert_des_Mojaves</t>
+          <t>Désert_des_Mojaves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Urbanisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rares villes sont liées aux ressources naturelles de ce désert qui sont très nombreuses : minerais de fer, borax, argent. Les villes fantômes comme Calico constituent les reliques de ces activités. On trouve aussi des bases militaires, telles Inyokern.
 Les villes principales sont : Palmdale en Californie et Las Vegas (1 777 539 habitants en 2006), la capitale mondiale des jeux de hasard, située dans le Nevada. Les autres villes sont Victorville, Barstow, Lancaster, Hesperia, California City, Apple Valley, Adelanto, Boron, Rosamond, Ridgecrest, Henderson, Needles, Joshua Tree, Yucca Valley, Twentynine Palms, Landers et Mojave.
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9sert_des_Mojaves</t>
+          <t>Désert_des_Mojaves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,11 +667,13 @@
           <t>Activités humaines</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Connu pour ses activités aérospatiales avec la Edwards Air Force Base, le Naval Air Weapons Station China Lake et son récent astroport civil d'où ont décollé SpaceShipOne et le Goldstone Deep Space Communications Complex, le désert des Mojaves reste une destination privilégiée des grimpeurs, en particulier dans les montagnes du parc national de Joshua Tree. Il sert de refuge aux marginaux, aux groupes de rock underground de Los Angeles ou aux joueurs de didjeridoo. De nombreux artistes contemporains (Thom Merrick (en), Jack Pierson), architectes (Linda Taalman) et musiciens (Eric Burdon, Victoria Williams (en)) sont attirés par l'isolement et les étendues sauvages de ce désert aux portes de Los Angeles. Les amateurs d'art contemporain viennent visiter les jardins de sculptures en plein air, les ateliers d’artistes et les œuvres d’architecture expérimentale[3]. Chaque année, l'artiste Andrea Zittel organise le High Desert Test Sites. On peut aussi visiter le dôme Integratron, œuvre de George Van Tassel.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Connu pour ses activités aérospatiales avec la Edwards Air Force Base, le Naval Air Weapons Station China Lake et son récent astroport civil d'où ont décollé SpaceShipOne et le Goldstone Deep Space Communications Complex, le désert des Mojaves reste une destination privilégiée des grimpeurs, en particulier dans les montagnes du parc national de Joshua Tree. Il sert de refuge aux marginaux, aux groupes de rock underground de Los Angeles ou aux joueurs de didjeridoo. De nombreux artistes contemporains (Thom Merrick (en), Jack Pierson), architectes (Linda Taalman) et musiciens (Eric Burdon, Victoria Williams (en)) sont attirés par l'isolement et les étendues sauvages de ce désert aux portes de Los Angeles. Les amateurs d'art contemporain viennent visiter les jardins de sculptures en plein air, les ateliers d’artistes et les œuvres d’architecture expérimentale. Chaque année, l'artiste Andrea Zittel organise le High Desert Test Sites. On peut aussi visiter le dôme Integratron, œuvre de George Van Tassel.
 Des studios d'Hollywood se sont également installés dans cette région désertique, notamment à Pioneertown, une ville construite en 1946 par Roy Rogers.
-Les centrales solaires du désert des Mojaves ont une capacité totale de 354 MW[4].
+Les centrales solaires du désert des Mojaves ont une capacité totale de 354 MW.
 </t>
         </is>
       </c>
@@ -662,7 +684,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9sert_des_Mojaves</t>
+          <t>Désert_des_Mojaves</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -680,7 +702,9 @@
           <t>Transports</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Les principales routes qui traversent le désert des Mojaves sont :
 Interstate 15 ;
@@ -698,7 +722,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9sert_des_Mojaves</t>
+          <t>Désert_des_Mojaves</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,14 +740,51 @@
           <t>Écorégion et protection</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le désert des Mojaves forme une écorégion terrestre définie par le WWF, qui appartient au biome des déserts et terres arbustives xériques de l'écozone néarctique.
 Y est protégée la El Paso Mountains Wilderness; située au nord du désert.
 À l'été 2023, un incendie de 300 kilomètres carrés en Californie et au Nevada,
-le « York Fire », menace la biodiversité exceptionnelle du désert Mojave au cœur de d'une zone protégée ((en)Mojave National Preserve), notamment les arbres de Josué (Yucca brevifolia), emblématiques de l’Ouest américain[5].
-Flore
-Abies concolor
+le « York Fire », menace la biodiversité exceptionnelle du désert Mojave au cœur de d'une zone protégée ((en)Mojave National Preserve), notamment les arbres de Josué (Yucca brevifolia), emblématiques de l’Ouest américain.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Désert_des_Mojaves</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9sert_des_Mojaves</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écorégion et protection</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abies concolor
 Adenophyllum cooperi
 Arctomecon californica
 Argemone corymbosa
@@ -761,7 +822,43 @@
 Yucca baccata
 Yucca brevifolia
 Yucca schidigera
-Faune
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Désert_des_Mojaves</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9sert_des_Mojaves</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écorégion et protection</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Buse à queue rousse
 Callisaurus draconoides
 Cerf hémione
@@ -787,8 +884,43 @@
 Theraphosidae
 Tortue du désert
 Trochilidae
-Aires protégées
-Ce désert contient quatre parcs nationaux (parc national de la vallée de la Mort, parc national de Joshua Tree, parc national de Zion, parc national du Grand Canyon) et plusieurs réserves naturelles (Wilderness Areas):
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Désert_des_Mojaves</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9sert_des_Mojaves</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écorégion et protection</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Aires protégées</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce désert contient quatre parcs nationaux (parc national de la vallée de la Mort, parc national de Joshua Tree, parc national de Zion, parc national du Grand Canyon) et plusieurs réserves naturelles (Wilderness Areas):
 Ouest :
 Black Mountain
 Bright Star
